--- a/40 課題管理表/課題管理表_バイエル様_1009-2.xlsx
+++ b/40 課題管理表/課題管理表_バイエル様_1009-2.xlsx
@@ -1152,6 +1152,170 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Bayer/IT/佐伯</t>
+    <rPh sb="9" eb="11">
+      <t>サエキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bayer側で準備する。SharePointを利用する方向で、環境を調整する。（2013/10/8）</t>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TopTour側画面での入力制御は問題ない。TopTour側の取り込み時の削除についても、双方向でのやり取りはないため問題ない。（2013/10/8）</t>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACTIS
+萬</t>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">失礼致しました。桁数の表記が逆になっておりました。
+「慰労会会場 (要・不要)」→ 1
+「慰労会参加予定者数」→ 5,0 </t>
+    <rPh sb="0" eb="2">
+      <t>シツレイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認中</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Salesforce Id」でユニークとなりますので、会合参加者IDが無くても紐つけは可能です。</t>
+    <rPh sb="28" eb="30">
+      <t>カイゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■NZMi0023 (TopTour2Nozomi) Meeting-Attendee (Traffic)
+　 Nozomi → Toptour 依頼には座席希望 (窓側、通路)があるが
+　 回答にはない。　座席希望の回答は不要なのか？
+　</t>
+    <rPh sb="73" eb="75">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>マドガワ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キボウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>それだけでは解消されることはありえないと思います。
 EOLを適切に定義する必要がありますが、トラブル時対応に使用しづらいため改行コードをそのままで送受信するのはお勧めしません。\r/\r\n/\nなど文字変換させるべきと考えます。
@@ -1166,7 +1330,16 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-→改行コードを削除する。(2013/10/8)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→改行コードを削除する。(2013/10/8)</t>
     </r>
     <rPh sb="6" eb="8">
       <t>カイショウ</t>
@@ -1249,36 +1422,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Bayer/IT/佐伯</t>
-    <rPh sb="9" eb="11">
-      <t>サエキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bayer側で準備する。SharePointを利用する方向で、環境を調整する。（2013/10/8）</t>
-    <rPh sb="5" eb="6">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目は削除で問題ありません。（2013/10/8）</t>
+    <r>
+      <t xml:space="preserve">項目は削除で問題ありません。（2013/10/8）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>--&gt; Cost Centerの項目は削除。合計の項目は必要
+　　（JR/航空券と宿泊の2項目)   2013/10/9 高橋</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
@@ -1288,140 +1446,32 @@
     <rPh sb="6" eb="8">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TopTour側画面での入力制御は問題ない。TopTour側の取り込み時の削除についても、双方向でのやり取りはないため問題ない。（2013/10/8）</t>
-    <rPh sb="7" eb="8">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="45" eb="48">
-      <t>ソウホウコウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ACTIS
-萬</t>
-    <rPh sb="6" eb="7">
-      <t>マン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">失礼致しました。桁数の表記が逆になっておりました。
-「慰労会会場 (要・不要)」→ 1
-「慰労会参加予定者数」→ 5,0 </t>
-    <rPh sb="0" eb="2">
-      <t>シツレイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケタスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認中</t>
-    <rPh sb="0" eb="3">
-      <t>カクニンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「Salesforce Id」でユニークとなりますので、会合参加者IDが無くても紐つけは可能です。</t>
-    <rPh sb="28" eb="30">
-      <t>カイゴウ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■NZMi0023 (TopTour2Nozomi) Meeting-Attendee (Traffic)
-　 Nozomi → Toptour 依頼には座席希望 (窓側、通路)があるが
-　 回答にはない。　座席希望の回答は不要なのか？
-　</t>
+    <rPh sb="50" eb="52">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>コウクウケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュクハク</t>
+    </rPh>
     <rPh sb="73" eb="75">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>マドガワ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ツウロ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>フヨウ</t>
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>タカハシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2662,7 +2712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2797,6 +2847,312 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="31" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="36" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="33" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="37" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="41" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="41" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="30" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="57" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="47" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="47" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2824,45 +3180,60 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="56" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="47" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="51" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="52" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="53" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="54" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="55" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="56" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="49" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="48" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="50" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="47" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="51" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="52" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="53" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="54" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="55" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="56" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2872,15 +3243,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="9" borderId="40" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2897,327 +3259,6 @@
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="30" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="57" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="47" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="48" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="47" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="49" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="48" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="50" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="41" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="9" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="39" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="41" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="40" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="36" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="33" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="37" xfId="50" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="36" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6000,10 +6041,10 @@
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="42" ySplit="7" topLeftCell="AQ20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="42" ySplit="7" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomRight" activeCell="AC21" sqref="AC21:AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -6015,1448 +6056,1505 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="77" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="77" t="s">
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="77" t="s">
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="94" t="s">
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="94"/>
-      <c r="AE1" s="77" t="s">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="94" t="s">
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94" t="s">
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="134"/>
+      <c r="AM1" s="134"/>
+      <c r="AN1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="94"/>
+      <c r="AO1" s="134"/>
     </row>
     <row r="2" spans="1:42" ht="11.25" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="113" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="58">
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="160">
         <v>41544</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="126" t="s">
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="58">
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="160">
         <v>41554</v>
       </c>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="67" t="s">
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="186"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="186"/>
+      <c r="AN2" s="186"/>
+      <c r="AO2" s="186"/>
     </row>
     <row r="3" spans="1:42" ht="11.25" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="186"/>
+      <c r="AK3" s="186"/>
+      <c r="AL3" s="186"/>
+      <c r="AM3" s="186"/>
+      <c r="AN3" s="186"/>
+      <c r="AO3" s="186"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="177"/>
+      <c r="Y4" s="177"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="168"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="177"/>
+      <c r="AG4" s="177"/>
+      <c r="AH4" s="177"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="186"/>
+      <c r="AL4" s="186"/>
+      <c r="AM4" s="186"/>
+      <c r="AN4" s="186"/>
+      <c r="AO4" s="186"/>
     </row>
     <row r="5" spans="1:42" s="2" customFormat="1"/>
     <row r="6" spans="1:42" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="92" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="103" t="s">
+      <c r="W6" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="101"/>
-      <c r="AK6" s="101"/>
-      <c r="AL6" s="101"/>
-      <c r="AM6" s="101"/>
-      <c r="AN6" s="101"/>
-      <c r="AO6" s="101"/>
-      <c r="AP6" s="102"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="137"/>
+      <c r="AE6" s="137"/>
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="137"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="137"/>
+      <c r="AL6" s="137"/>
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="137"/>
+      <c r="AP6" s="138"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="125"/>
-      <c r="B7" s="142" t="s">
+      <c r="A7" s="169"/>
+      <c r="B7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="143" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="101" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="103" t="s">
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="95" t="s">
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="101" t="s">
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="102"/>
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="137"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="137"/>
+      <c r="AL7" s="137"/>
+      <c r="AM7" s="137"/>
+      <c r="AN7" s="137"/>
+      <c r="AO7" s="137"/>
+      <c r="AP7" s="138"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="A8" s="46">
         <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="122">
+      <c r="B8" s="157">
         <v>41544</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="127" t="s">
+      <c r="C8" s="158"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130" t="s">
+      <c r="F8" s="180"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="132"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="184"/>
       <c r="V8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="122">
+      <c r="W8" s="157">
         <v>41544</v>
       </c>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="89" t="s">
+      <c r="X8" s="158"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="80" t="s">
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="82"/>
+      <c r="AD8" s="188"/>
+      <c r="AE8" s="188"/>
+      <c r="AF8" s="188"/>
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188"/>
+      <c r="AI8" s="188"/>
+      <c r="AJ8" s="188"/>
+      <c r="AK8" s="188"/>
+      <c r="AL8" s="188"/>
+      <c r="AM8" s="188"/>
+      <c r="AN8" s="188"/>
+      <c r="AO8" s="188"/>
+      <c r="AP8" s="189"/>
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" ht="51" customHeight="1">
       <c r="A9" s="48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="79">
         <v>41544</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="136" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="141"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="123"/>
       <c r="V9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="133">
+      <c r="W9" s="79">
         <v>41544</v>
       </c>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="83" t="s">
+      <c r="X9" s="80"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="98" t="s">
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="100"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="94"/>
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" ht="77.25" customHeight="1">
       <c r="A10" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="136" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="151" t="s">
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="153"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="133">
+      <c r="W10" s="79">
         <v>41544</v>
       </c>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="83" t="s">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="86" t="s">
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="88"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="191"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="191"/>
+      <c r="AJ10" s="191"/>
+      <c r="AK10" s="191"/>
+      <c r="AL10" s="191"/>
+      <c r="AM10" s="191"/>
+      <c r="AN10" s="191"/>
+      <c r="AO10" s="191"/>
+      <c r="AP10" s="192"/>
     </row>
     <row r="11" spans="1:42" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A11" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="136" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="151" t="s">
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="153"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="118"/>
       <c r="V11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="133">
+      <c r="W11" s="79">
         <v>41544</v>
       </c>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="83" t="s">
+      <c r="X11" s="80"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="145" t="s">
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="146"/>
-      <c r="AH11" s="146"/>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="146"/>
-      <c r="AM11" s="146"/>
-      <c r="AN11" s="146"/>
-      <c r="AO11" s="146"/>
-      <c r="AP11" s="147"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="97"/>
     </row>
     <row r="12" spans="1:42" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="A12" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="136" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="151" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="153"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="118"/>
       <c r="V12" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="133">
+      <c r="W12" s="79">
         <v>41544</v>
       </c>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="83" t="s">
+      <c r="X12" s="80"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="145" t="s">
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="146"/>
-      <c r="AJ12" s="146"/>
-      <c r="AK12" s="146"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="146"/>
-      <c r="AN12" s="146"/>
-      <c r="AO12" s="146"/>
-      <c r="AP12" s="147"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="97"/>
     </row>
     <row r="13" spans="1:42" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A13" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="136" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="151" t="s">
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="153"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="118"/>
       <c r="V13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="133">
+      <c r="W13" s="79">
         <v>41544</v>
       </c>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="83" t="s">
+      <c r="X13" s="80"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="145" t="s">
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="146"/>
-      <c r="AK13" s="146"/>
-      <c r="AL13" s="146"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="146"/>
-      <c r="AO13" s="146"/>
-      <c r="AP13" s="147"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="97"/>
     </row>
     <row r="14" spans="1:42" s="2" customFormat="1" ht="82.5" customHeight="1">
       <c r="A14" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="136" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="151" t="s">
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="153"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="118"/>
       <c r="V14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="133">
+      <c r="W14" s="79">
         <v>41544</v>
       </c>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="83" t="s">
+      <c r="X14" s="80"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="155"/>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="155"/>
-      <c r="AO14" s="155"/>
-      <c r="AP14" s="156"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="100"/>
     </row>
     <row r="15" spans="1:42" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="157">
+      <c r="B15" s="101">
         <v>41554</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="163" t="s">
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="109"/>
       <c r="V15" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="W15" s="157">
+      <c r="W15" s="101">
         <v>41554</v>
       </c>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="166" t="s">
+      <c r="X15" s="102"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="169" t="s">
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="170"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="170"/>
-      <c r="AI15" s="170"/>
-      <c r="AJ15" s="170"/>
-      <c r="AK15" s="170"/>
-      <c r="AL15" s="170"/>
-      <c r="AM15" s="170"/>
-      <c r="AN15" s="170"/>
-      <c r="AO15" s="170"/>
-      <c r="AP15" s="171"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
+      <c r="AF15" s="120"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="121"/>
     </row>
     <row r="16" spans="1:42" s="2" customFormat="1" ht="70.5" customHeight="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="79">
         <v>41554</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="136" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="98" t="s">
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="100"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W16" s="133">
+      <c r="W16" s="79">
         <v>41555</v>
       </c>
-      <c r="X16" s="134"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="172" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="173"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="173"/>
-      <c r="AP16" s="174"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="86"/>
+      <c r="AO16" s="86"/>
+      <c r="AP16" s="87"/>
     </row>
     <row r="17" spans="1:42" s="2" customFormat="1" ht="84.75" customHeight="1">
       <c r="A17" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="133">
+      <c r="B17" s="79">
         <v>41554</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="140" t="s">
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="175"/>
-      <c r="U17" s="176"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="133">
+      <c r="W17" s="79">
         <v>41555</v>
       </c>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="172" t="s">
+      <c r="X17" s="80"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="173"/>
-      <c r="AL17" s="173"/>
-      <c r="AM17" s="173"/>
-      <c r="AN17" s="173"/>
-      <c r="AO17" s="173"/>
-      <c r="AP17" s="174"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="86"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="86"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="86"/>
+      <c r="AO17" s="86"/>
+      <c r="AP17" s="87"/>
     </row>
     <row r="18" spans="1:42" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="A18" s="48">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="79">
         <v>41554</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="140" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
-      <c r="U18" s="176"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="133">
+      <c r="W18" s="79">
         <v>41556</v>
       </c>
-      <c r="X18" s="134"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="180" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD18" s="181"/>
-      <c r="AE18" s="181"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="181"/>
-      <c r="AH18" s="181"/>
-      <c r="AI18" s="181"/>
-      <c r="AJ18" s="181"/>
-      <c r="AK18" s="181"/>
-      <c r="AL18" s="181"/>
-      <c r="AM18" s="181"/>
-      <c r="AN18" s="181"/>
-      <c r="AO18" s="181"/>
-      <c r="AP18" s="182"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+      <c r="AP18" s="87"/>
     </row>
     <row r="19" spans="1:42" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="A19" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="133">
+      <c r="B19" s="79">
         <v>41554</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="140" t="s">
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="175"/>
-      <c r="T19" s="175"/>
-      <c r="U19" s="176"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="91"/>
       <c r="V19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="133">
+      <c r="W19" s="79">
         <v>41556</v>
       </c>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="180" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD19" s="181"/>
-      <c r="AE19" s="181"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
-      <c r="AI19" s="181"/>
-      <c r="AJ19" s="181"/>
-      <c r="AK19" s="181"/>
-      <c r="AL19" s="181"/>
-      <c r="AM19" s="181"/>
-      <c r="AN19" s="181"/>
-      <c r="AO19" s="181"/>
-      <c r="AP19" s="182"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="87"/>
     </row>
     <row r="20" spans="1:42" ht="37.5" customHeight="1">
       <c r="A20" s="48">
         <f t="shared" ref="A20:A26" si="1">ROW()-7</f>
         <v>13</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="79">
         <v>41554</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="136" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="140" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="179"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
       <c r="V20" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="133">
+      <c r="W20" s="79">
         <v>41555</v>
       </c>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="83" t="s">
+      <c r="X20" s="80"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="172" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="173"/>
-      <c r="AJ20" s="173"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="173"/>
-      <c r="AM20" s="173"/>
-      <c r="AN20" s="173"/>
-      <c r="AO20" s="173"/>
-      <c r="AP20" s="174"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="86"/>
+      <c r="AP20" s="87"/>
     </row>
     <row r="21" spans="1:42" ht="72" customHeight="1">
       <c r="A21" s="48">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="79">
         <v>41555</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="177" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="137"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="140" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="178"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="179"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="78"/>
       <c r="V21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="133">
+      <c r="W21" s="79">
         <v>41555</v>
       </c>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="172" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
-      <c r="AI21" s="173"/>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="173"/>
-      <c r="AN21" s="173"/>
-      <c r="AO21" s="173"/>
-      <c r="AP21" s="174"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="86"/>
+      <c r="AP21" s="87"/>
     </row>
     <row r="22" spans="1:42" ht="48.75" customHeight="1">
       <c r="A22" s="48">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="79">
         <v>41555</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="177" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="137"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="140" t="s">
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="179"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
       <c r="V22" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="W22" s="133"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="183"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="180"/>
-      <c r="AD22" s="181"/>
-      <c r="AE22" s="181"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="181"/>
-      <c r="AH22" s="181"/>
-      <c r="AI22" s="181"/>
-      <c r="AJ22" s="181"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="181"/>
-      <c r="AM22" s="181"/>
-      <c r="AN22" s="181"/>
-      <c r="AO22" s="181"/>
-      <c r="AP22" s="182"/>
+        <v>116</v>
+      </c>
+      <c r="W22" s="79"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="86"/>
+      <c r="AP22" s="87"/>
     </row>
     <row r="23" spans="1:42" ht="45.75" customHeight="1">
       <c r="A23" s="48">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="133">
+      <c r="B23" s="79">
         <v>41556</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="137"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="179"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="78"/>
       <c r="V23" s="52"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="183"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="180"/>
-      <c r="AD23" s="181"/>
-      <c r="AE23" s="181"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="181"/>
-      <c r="AH23" s="181"/>
-      <c r="AI23" s="181"/>
-      <c r="AJ23" s="181"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="181"/>
-      <c r="AM23" s="181"/>
-      <c r="AN23" s="181"/>
-      <c r="AO23" s="181"/>
-      <c r="AP23" s="182"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86"/>
+      <c r="AP23" s="87"/>
     </row>
     <row r="24" spans="1:42" ht="12" customHeight="1">
       <c r="A24" s="48">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="179"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="78"/>
       <c r="V24" s="52"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="183"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="181"/>
-      <c r="AE24" s="181"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="181"/>
-      <c r="AH24" s="181"/>
-      <c r="AI24" s="181"/>
-      <c r="AJ24" s="181"/>
-      <c r="AK24" s="181"/>
-      <c r="AL24" s="181"/>
-      <c r="AM24" s="181"/>
-      <c r="AN24" s="181"/>
-      <c r="AO24" s="181"/>
-      <c r="AP24" s="182"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="86"/>
+      <c r="AO24" s="86"/>
+      <c r="AP24" s="87"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
       <c r="A25" s="48">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="179"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="78"/>
       <c r="V25" s="52"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="180"/>
-      <c r="AD25" s="181"/>
-      <c r="AE25" s="181"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="181"/>
-      <c r="AH25" s="181"/>
-      <c r="AI25" s="181"/>
-      <c r="AJ25" s="181"/>
-      <c r="AK25" s="181"/>
-      <c r="AL25" s="181"/>
-      <c r="AM25" s="181"/>
-      <c r="AN25" s="181"/>
-      <c r="AO25" s="181"/>
-      <c r="AP25" s="182"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="86"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="87"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
       <c r="A26" s="53">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="M26" s="194"/>
-      <c r="N26" s="194"/>
-      <c r="O26" s="194"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="194"/>
-      <c r="S26" s="194"/>
-      <c r="T26" s="194"/>
-      <c r="U26" s="195"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="69"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="189"/>
-      <c r="Z26" s="196"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="184"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="185"/>
-      <c r="AF26" s="185"/>
-      <c r="AG26" s="185"/>
-      <c r="AH26" s="185"/>
-      <c r="AI26" s="185"/>
-      <c r="AJ26" s="185"/>
-      <c r="AK26" s="185"/>
-      <c r="AL26" s="185"/>
-      <c r="AM26" s="185"/>
-      <c r="AN26" s="185"/>
-      <c r="AO26" s="185"/>
-      <c r="AP26" s="186"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="AC26:AP26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:U26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="H25:U25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:U24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:U22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AP22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="AC24:AP24"/>
-    <mergeCell ref="AC25:AP25"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AP23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AA2:AD4"/>
+    <mergeCell ref="AE2:AI4"/>
+    <mergeCell ref="AJ2:AK4"/>
+    <mergeCell ref="AL2:AM4"/>
+    <mergeCell ref="AN2:AO4"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AC8:AP8"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AP10"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AP9"/>
+    <mergeCell ref="H7:U7"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="W6:AP6"/>
+    <mergeCell ref="A2:K4"/>
+    <mergeCell ref="L2:Q4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="R2:U4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="AC7:AP7"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="V2:Z4"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:U8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:U9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="AC11:AP11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:U10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:U11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC12:AP12"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AP13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AP14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:U15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:U13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="H14:U14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="AC15:AP15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:U12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AP17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AP16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:U17"/>
+    <mergeCell ref="W17:Y17"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:U21"/>
@@ -7481,93 +7579,36 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:U18"/>
     <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AP17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:U16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AP16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:U17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="AC12:AP12"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AP13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AP14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:U15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:U13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="H14:U14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="AC15:AP15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:U12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:U9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="AC11:AP11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:U10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:U11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AP9"/>
-    <mergeCell ref="H7:U7"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="W6:AP6"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="L2:Q4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="R2:U4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="AC7:AP7"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="V2:Z4"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:U8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="AA2:AD4"/>
-    <mergeCell ref="AE2:AI4"/>
-    <mergeCell ref="AJ2:AK4"/>
-    <mergeCell ref="AL2:AM4"/>
-    <mergeCell ref="AN2:AO4"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AC8:AP8"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AP10"/>
-    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:U22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AP22"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="AC24:AP24"/>
+    <mergeCell ref="AC25:AP25"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AP23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AC26:AP26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:U26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="H25:U25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:U24"/>
+    <mergeCell ref="W24:Y24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -8080,13 +8121,13 @@
       <c r="B49" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="199"/>
+      <c r="C49" s="196"/>
       <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
       <c r="A50" s="43"/>
       <c r="B50" s="44"/>
-      <c r="C50" s="200"/>
+      <c r="C50" s="197"/>
       <c r="D50" s="45"/>
     </row>
   </sheetData>
